--- a/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEEF62F-8751-4733-86DF-7C4F47616E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B7BD9-20E6-4A56-8EED-15140B5FF5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Yes-Photometry signal is wonky, needs a detrend ?</t>
   </si>
 </sst>
 </file>
@@ -405,13 +408,14 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>33</v>

--- a/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B7BD9-20E6-4A56-8EED-15140B5FF5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E06DF7-062F-41E0-8A4A-9724B60BEF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>29</v>

--- a/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E06DF7-062F-41E0-8A4A-9724B60BEF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571F1FA7-635B-4A0C-8E52-1739CC0BA42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="6375" windowWidth="14340" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>33</v>

--- a/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571F1FA7-635B-4A0C-8E52-1739CC0BA42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C855808-3401-4049-BBD6-2AFC7EF6D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5535" yWindow="6375" windowWidth="14340" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes-Photometry signal is wonky, needs a detrend ?</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>29</v>

--- a/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Rawdata/ChowMiceKeyPhotometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C855808-3401-4049-BBD6-2AFC7EF6D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A035BD-D453-41B6-AE01-8C14B2D03B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="6375" windowWidth="14340" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>572M4</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +656,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
